--- a/EXCEL_TASKS_31.01.2026.xlsx
+++ b/EXCEL_TASKS_31.01.2026.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA7EF5E-D231-4974-B5B6-6AD804925B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D09A3D-9334-46E9-817E-C100F65A30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFB1D955-8C0F-4F19-8668-9A924C2781BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFB1D955-8C0F-4F19-8668-9A924C2781BD}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
     <sheet name="HLOOKUP" sheetId="2" r:id="rId2"/>
     <sheet name="XLOOKUP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6BB183-F8EA-44B5-A339-398A61D0FCCB}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>Aman</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP(H10,B1:D6,2,0)</f>
+        <f>VLOOKUP(G10,A1:C6,3,0)</f>
         <v>78</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,15 +631,19 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,10 +664,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
@@ -737,6 +743,10 @@
       <c r="M8">
         <f>HLOOKUP(L8,L2:Q4,3,0)</f>
         <v>78</v>
+      </c>
+      <c r="N8" t="str">
+        <f>HLOOKUP(L8,L2:Q4,2,0)</f>
+        <v>Aman</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5BA944-F394-4674-9A5F-46C7714486D2}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,77 +772,77 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>78</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>35</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>62</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>28</v>
       </c>
-      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="5" t="s">
@@ -850,19 +860,14 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <f>_xlfn.XLOOKUP(H9,B2:B6,C2:C6,"NOT FOUND")</f>
-        <v>62</v>
+        <f>VLOOKUP(G9,A1:C6,3,0)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{A2F5BE22-9FE5-4560-88D6-9A070585E428}">
-      <formula1>$B$2:$B$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>